--- a/Florida.xlsx
+++ b/Florida.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="72" windowWidth="11460" windowHeight="4776" activeTab="6"/>
+    <workbookView xWindow="384" yWindow="72" windowWidth="11460" windowHeight="4776"/>
   </bookViews>
   <sheets>
     <sheet name="ML" sheetId="1" r:id="rId1"/>
@@ -12,15 +12,15 @@
     <sheet name="AA" sheetId="3" r:id="rId3"/>
     <sheet name="HiA" sheetId="4" r:id="rId4"/>
     <sheet name="LowA" sheetId="5" r:id="rId5"/>
-    <sheet name="Rookie" sheetId="7" r:id="rId6"/>
-    <sheet name="Wish List" sheetId="6" r:id="rId7"/>
+    <sheet name="Wish List" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="167">
   <si>
     <t>Position</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Wilbur Pagnozzi</t>
   </si>
   <si>
-    <t>Alex Sasaki</t>
-  </si>
-  <si>
     <t>Yao Lin Chong</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
     <t>Wascar Perez</t>
   </si>
   <si>
-    <t>Daniel Ray Nevin</t>
-  </si>
-  <si>
     <t>Eliezer Oliva</t>
   </si>
   <si>
@@ -208,15 +202,9 @@
     <t>Simon Cueto</t>
   </si>
   <si>
-    <t>Conner Bolden</t>
-  </si>
-  <si>
     <t>Larry Langford</t>
   </si>
   <si>
-    <t>TJ Forrest</t>
-  </si>
-  <si>
     <t>Pasqual Nunez</t>
   </si>
   <si>
@@ -226,15 +214,9 @@
     <t>Toru Chung</t>
   </si>
   <si>
-    <t>Joaquin Ortiz</t>
-  </si>
-  <si>
     <t>Heinie Medica</t>
   </si>
   <si>
-    <t>Taylor Mantei</t>
-  </si>
-  <si>
     <t>Louis Odorizzi</t>
   </si>
   <si>
@@ -250,9 +232,6 @@
     <t>Yimi Alvarez</t>
   </si>
   <si>
-    <t>Ossie Overbeck</t>
-  </si>
-  <si>
     <t>Denzel Greer</t>
   </si>
   <si>
@@ -268,9 +247,6 @@
     <t>Hugh Tucker</t>
   </si>
   <si>
-    <t>Jumbo Cervelli</t>
-  </si>
-  <si>
     <t>Phillip Blair</t>
   </si>
   <si>
@@ -280,9 +256,6 @@
     <t>Louis Affeldt</t>
   </si>
   <si>
-    <t>Charles Parrish</t>
-  </si>
-  <si>
     <t>Domingo Manuel</t>
   </si>
   <si>
@@ -307,21 +280,9 @@
     <t>Maicer Petit</t>
   </si>
   <si>
-    <t>Ron Hoffman</t>
-  </si>
-  <si>
     <t>Roger Wisdom</t>
   </si>
   <si>
-    <t>Courtney Xavier</t>
-  </si>
-  <si>
-    <t>Paco Campos</t>
-  </si>
-  <si>
-    <t>Vern Graham</t>
-  </si>
-  <si>
     <t>Gaby Singleton</t>
   </si>
   <si>
@@ -379,9 +340,6 @@
     <t>Bunny Griffiths</t>
   </si>
   <si>
-    <t>Joakim Veras</t>
-  </si>
-  <si>
     <t>Nicholas Logan</t>
   </si>
   <si>
@@ -439,9 +397,6 @@
     <t>Vitas Lombard</t>
   </si>
   <si>
-    <t>Derrick Kandilas</t>
-  </si>
-  <si>
     <t>Asdrubal Gonzalez</t>
   </si>
   <si>
@@ -451,15 +406,9 @@
     <t>Claude Barney</t>
   </si>
   <si>
-    <t>Butch Lefebvre</t>
-  </si>
-  <si>
     <t>Sid Blake</t>
   </si>
   <si>
-    <t>Max Cruz</t>
-  </si>
-  <si>
     <t>Radhames Fernandez</t>
   </si>
   <si>
@@ -475,9 +424,6 @@
     <t>Offseason Wish List</t>
   </si>
   <si>
-    <t>MLB RP</t>
-  </si>
-  <si>
     <t>AAA RP</t>
   </si>
   <si>
@@ -503,6 +449,78 @@
   </si>
   <si>
     <t>LowA C</t>
+  </si>
+  <si>
+    <t>Willie Gomez</t>
+  </si>
+  <si>
+    <t>Max Turnbow</t>
+  </si>
+  <si>
+    <t>Alvin Roberts</t>
+  </si>
+  <si>
+    <t>Augie Bruske</t>
+  </si>
+  <si>
+    <t>FA to re-sign</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>AAA P</t>
+  </si>
+  <si>
+    <t>AAA C</t>
+  </si>
+  <si>
+    <t>AAA Hitter</t>
+  </si>
+  <si>
+    <t>AA Hitter</t>
+  </si>
+  <si>
+    <t>AA P</t>
+  </si>
+  <si>
+    <t>HiA P</t>
+  </si>
+  <si>
+    <t>HiA Hitter</t>
+  </si>
+  <si>
+    <t>LowA Hitter</t>
+  </si>
+  <si>
+    <t>LowA P</t>
+  </si>
+  <si>
+    <t>Raul Gandarilla</t>
+  </si>
+  <si>
+    <t>Pedro Vega</t>
+  </si>
+  <si>
+    <t>Ruben Cela</t>
+  </si>
+  <si>
+    <t>Madison Dowd</t>
+  </si>
+  <si>
+    <t>Damaso Chavez</t>
+  </si>
+  <si>
+    <t>Jarrett Adkins</t>
+  </si>
+  <si>
+    <t>Jeff Buckel</t>
+  </si>
+  <si>
+    <t>LowA SP</t>
+  </si>
+  <si>
+    <t>LowA CF</t>
   </si>
 </sst>
 </file>
@@ -544,9 +562,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -918,11 +937,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -985,7 +1008,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -993,7 +1016,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1025,7 +1048,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1041,7 +1064,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1049,7 +1072,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1057,7 +1080,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1065,7 +1088,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1073,7 +1096,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1081,21 +1104,23 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1103,7 +1128,7 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1111,7 +1136,7 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1119,12 +1144,15 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1134,92 +1162,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1227,205 +1261,205 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1435,290 +1469,309 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1728,135 +1781,139 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1864,7 +1921,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1872,7 +1929,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1880,7 +1937,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1888,7 +1945,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1896,7 +1953,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1904,12 +1961,12 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B23" s="1"/>
     </row>
@@ -1918,7 +1975,7 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1926,7 +1983,7 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1934,69 +1991,69 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2006,265 +2063,276 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="C27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2274,89 +2342,257 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>150</v>
-      </c>
-    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Florida.xlsx
+++ b/Florida.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="72" windowWidth="11460" windowHeight="4776"/>
+    <workbookView xWindow="384" yWindow="72" windowWidth="11460" windowHeight="4776" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ML" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="HiA" sheetId="4" r:id="rId4"/>
     <sheet name="LowA" sheetId="5" r:id="rId5"/>
     <sheet name="Wish List" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="Coaches" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="215">
   <si>
     <t>Position</t>
   </si>
@@ -76,9 +76,6 @@
     <t>CL</t>
   </si>
   <si>
-    <t>Keith Allen</t>
-  </si>
-  <si>
     <t>Braden Anderson</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>Julio Serra</t>
   </si>
   <si>
-    <t>Darrell Hunter</t>
-  </si>
-  <si>
     <t>Sid Hatcher</t>
   </si>
   <si>
@@ -106,9 +100,6 @@
     <t>Wilbur Pagnozzi</t>
   </si>
   <si>
-    <t>Yao Lin Chong</t>
-  </si>
-  <si>
     <t>Mat Pote</t>
   </si>
   <si>
@@ -181,9 +172,6 @@
     <t>Boone Hendrickson</t>
   </si>
   <si>
-    <t>Stolmy Cruz</t>
-  </si>
-  <si>
     <t>JB Olson</t>
   </si>
   <si>
@@ -316,9 +304,6 @@
     <t>Bono Capra</t>
   </si>
   <si>
-    <t>Andres Arias</t>
-  </si>
-  <si>
     <t>Zip McConnell</t>
   </si>
   <si>
@@ -331,15 +316,9 @@
     <t>Radhames Mateo</t>
   </si>
   <si>
-    <t>Enrique Vazquez</t>
-  </si>
-  <si>
     <t>Paco Ynoa</t>
   </si>
   <si>
-    <t>Bunny Griffiths</t>
-  </si>
-  <si>
     <t>Nicholas Logan</t>
   </si>
   <si>
@@ -382,24 +361,15 @@
     <t>Lenny Cannon</t>
   </si>
   <si>
-    <t>Al Ramirez</t>
-  </si>
-  <si>
     <t>Joba Sprague</t>
   </si>
   <si>
-    <t>Jhonathan Crespo</t>
-  </si>
-  <si>
     <t>Jeromy Jordan</t>
   </si>
   <si>
     <t>Vitas Lombard</t>
   </si>
   <si>
-    <t>Asdrubal Gonzalez</t>
-  </si>
-  <si>
     <t>Mike Roth</t>
   </si>
   <si>
@@ -418,9 +388,6 @@
     <t>Paul Itou</t>
   </si>
   <si>
-    <t>John Young</t>
-  </si>
-  <si>
     <t>Offseason Wish List</t>
   </si>
   <si>
@@ -466,9 +433,6 @@
     <t>FA to re-sign</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>AAA P</t>
   </si>
   <si>
@@ -521,6 +485,186 @@
   </si>
   <si>
     <t>LowA CF</t>
+  </si>
+  <si>
+    <t>Jumbo Cervelli</t>
+  </si>
+  <si>
+    <t>Bunny Grifffiths</t>
+  </si>
+  <si>
+    <t>Ron Hoffman</t>
+  </si>
+  <si>
+    <t>Albert Machi</t>
+  </si>
+  <si>
+    <t>Jhonatan Crespo</t>
+  </si>
+  <si>
+    <t>Albert Espinosa</t>
+  </si>
+  <si>
+    <t>Ali Ramirez</t>
+  </si>
+  <si>
+    <t>Coaches</t>
+  </si>
+  <si>
+    <t>Option 1</t>
+  </si>
+  <si>
+    <t>Option 2</t>
+  </si>
+  <si>
+    <t>Option 3</t>
+  </si>
+  <si>
+    <t>MLB BC</t>
+  </si>
+  <si>
+    <t>Zip Wilson</t>
+  </si>
+  <si>
+    <t>Abraham Glynn</t>
+  </si>
+  <si>
+    <t>Isaac Gleason</t>
+  </si>
+  <si>
+    <t>MLB Hitting</t>
+  </si>
+  <si>
+    <t>Osvaldo Figureoa</t>
+  </si>
+  <si>
+    <t>Gregory Cole</t>
+  </si>
+  <si>
+    <t>Brady Dickerson</t>
+  </si>
+  <si>
+    <t>MLB Bullpen</t>
+  </si>
+  <si>
+    <t>MLB 1B</t>
+  </si>
+  <si>
+    <t>Bill Brantley</t>
+  </si>
+  <si>
+    <t>Dorian O'Shea</t>
+  </si>
+  <si>
+    <t>Les Salazar</t>
+  </si>
+  <si>
+    <t>Pat Hoover</t>
+  </si>
+  <si>
+    <t>Jeffrey Nixon</t>
+  </si>
+  <si>
+    <t>AAA Pitching</t>
+  </si>
+  <si>
+    <t>Michael Fullmer</t>
+  </si>
+  <si>
+    <t>Felipe Navarro</t>
+  </si>
+  <si>
+    <t>Trey Rivera</t>
+  </si>
+  <si>
+    <t>AA Pitching</t>
+  </si>
+  <si>
+    <t>AA Hitting</t>
+  </si>
+  <si>
+    <t>HiA Pitching</t>
+  </si>
+  <si>
+    <t>HiA Hitting</t>
+  </si>
+  <si>
+    <t>LowA Hitting</t>
+  </si>
+  <si>
+    <t>Rookie Pitching</t>
+  </si>
+  <si>
+    <t>Rookie Hitting</t>
+  </si>
+  <si>
+    <t>Robb Parrish</t>
+  </si>
+  <si>
+    <t>Mateo Owen</t>
+  </si>
+  <si>
+    <t>Sammy Baez</t>
+  </si>
+  <si>
+    <t>Placido Cedeno</t>
+  </si>
+  <si>
+    <t>Carl Watkins</t>
+  </si>
+  <si>
+    <t>Martin Gardner</t>
+  </si>
+  <si>
+    <t>Andy Williams</t>
+  </si>
+  <si>
+    <t>Vasco Maduro</t>
+  </si>
+  <si>
+    <t>Charlie James</t>
+  </si>
+  <si>
+    <t>Gene Pizzano</t>
+  </si>
+  <si>
+    <t>Bernie Albuquerque</t>
+  </si>
+  <si>
+    <t>Royce Hooper</t>
+  </si>
+  <si>
+    <t>Lance Lee</t>
+  </si>
+  <si>
+    <t>Dewey Winn</t>
+  </si>
+  <si>
+    <t>Miguel Parraz</t>
+  </si>
+  <si>
+    <t>Angel Chavez</t>
+  </si>
+  <si>
+    <t>Bill Bittle</t>
+  </si>
+  <si>
+    <t>Skip Hamilton</t>
+  </si>
+  <si>
+    <t>Otis Nathan</t>
+  </si>
+  <si>
+    <t>Harry Glanville</t>
+  </si>
+  <si>
+    <t>Jim Teahen</t>
+  </si>
+  <si>
+    <t>Rico Chavez</t>
+  </si>
+  <si>
+    <t>BN HITTER/BACKUP C</t>
   </si>
 </sst>
 </file>
@@ -935,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -968,7 +1112,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -976,7 +1120,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -984,7 +1128,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -992,7 +1136,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1000,7 +1144,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1008,7 +1152,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1016,7 +1160,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1024,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1032,7 +1176,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1040,7 +1184,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1048,7 +1192,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1056,7 +1200,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1064,7 +1208,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1072,7 +1216,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1080,23 +1224,21 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1104,7 +1246,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1112,7 +1254,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1120,23 +1262,21 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1144,7 +1284,7 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1152,7 +1292,15 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1164,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1178,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1186,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1194,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1202,7 +1350,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1210,7 +1358,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1218,7 +1366,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1226,7 +1374,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1234,7 +1382,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1242,7 +1390,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1250,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1258,7 +1406,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1266,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1274,7 +1422,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1282,7 +1430,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1290,7 +1438,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1298,168 +1446,161 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1471,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1488,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1496,7 +1637,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1504,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1512,26 +1653,21 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" t="s">
-        <v>148</v>
-      </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1539,21 +1675,23 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1561,7 +1699,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1569,7 +1707,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1577,7 +1715,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1585,7 +1723,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1593,21 +1731,23 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1615,10 +1755,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1626,10 +1763,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1637,40 +1771,39 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B21" t="s">
-        <v>86</v>
+      <c r="B21" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" t="s">
-        <v>148</v>
+      <c r="B22" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -1678,14 +1811,16 @@
       <c r="A24" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1693,85 +1828,85 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>76</v>
+        <v>37</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>143</v>
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1783,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1797,21 +1932,23 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1819,7 +1956,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1827,7 +1964,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1835,7 +1972,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1843,23 +1980,21 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>93</v>
-      </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1867,7 +2002,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1875,32 +2010,26 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>107</v>
-      </c>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>108</v>
-      </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
-        <v>102</v>
-      </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1913,7 +2042,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1937,7 +2066,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1945,7 +2074,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1953,7 +2082,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1961,21 +2090,21 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1983,7 +2112,7 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1991,69 +2120,60 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2065,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2079,20 +2199,21 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2100,20 +2221,21 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2121,23 +2243,21 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>115</v>
-      </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2145,7 +2265,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2153,7 +2273,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -2161,178 +2281,170 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>130</v>
-      </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2344,235 +2456,235 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2582,17 +2694,200 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
